--- a/测试报告.xlsx
+++ b/测试报告.xlsx
@@ -1,323 +1,637 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15015" windowHeight="7545"/>
+    <workbookView windowWidth="18540" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>目前：</t>
+  </si>
+  <si>
+    <t>修改为：</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>修改情况</t>
+  </si>
   <si>
     <t xml:space="preserve">开机画面
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">关机画面
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正在初始化
 请等待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改为：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ExS 100
 V 2018-05-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ExS 100 型号
 V 2018-05-30 版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关机画面
+</t>
   </si>
   <si>
     <t>按住[开关]键5秒后
 提示[正在关机请等待]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按住[开关]键3秒后
 提示[OFF] 松开后关机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一次称重时语音播报
+</t>
   </si>
   <si>
     <t xml:space="preserve">上电后第一次称重，语音仅仅播报小数点后面一位
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次称重后就正常了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最近三笔重量信息
+</t>
+  </si>
+  <si>
+    <t>一直保留最近三笔重量；
+关机后也不清除</t>
   </si>
   <si>
     <t>重新开机后需清除上次重量信息；
 仅仅重式开机后最近三笔重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">累计重量
+</t>
+  </si>
+  <si>
+    <t>一直保留累计重量；
+关机后也不清除</t>
   </si>
   <si>
     <t>重新开机后需清除上次累计信息；
 仅仅累计开机后信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二次称重后就正常了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">零点符号
+</t>
   </si>
   <si>
     <t>零点附近细微变化时， 零点符号容易闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">稳定符号
+</t>
   </si>
   <si>
     <t>重量细微变化时，稳定符号容易闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">最近三笔重量信息
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一直保留最近三笔重量；
-关机后也不清除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一直保留累计重量；
-关机后也不清除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">累计重量
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">零点符号
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">稳定符号
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">待机模式
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">自动关机
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">无
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3分钟未进行正常称重；
 需进入待机模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">自动关机
+</t>
   </si>
   <si>
     <t>10分钟未进行正常称重；
 需自动关机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">置零时语音播报
+</t>
   </si>
   <si>
     <t xml:space="preserve">置零无语音播报
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">置零生效时，需语音播报 置零
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音芯片中无此字</t>
+  </si>
+  <si>
+    <t>暂时不修改</t>
   </si>
   <si>
     <t xml:space="preserve">置零键相应速度
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">置零后 需要3秒后才动作
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">需修改为立即动作
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">第一次称重时语音播报
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">置零时语音播报
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为置零按键后，会影响重量，所以加了2秒的延迟</t>
   </si>
   <si>
     <t xml:space="preserve">蓝牙地址显示
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蓝牙地址
 xx:xx:xx:xx:xx:xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">xx:xx:xx:xx:xx:xx
 右下角蓝牙符号 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按任一键返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">电量符号
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">需核查电池符号电压
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新电池就提示无电量
 2.8V时仅仅显示1格电量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">需核查电池符号电压
+</t>
   </si>
   <si>
     <t xml:space="preserve">耗电量
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">需核查耗电量
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">累计
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二笔重量加载间隔偏低时，没有累计以及播报（大约2秒）</t>
   </si>
   <si>
     <t>重新加载相应时间过长。
 不得高于1秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二笔重量加载间隔偏低时，没有累计以及播报（大约2秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不含稳定时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发现</t>
   </si>
   <si>
     <t>画面显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有时会发生有语音播报但是无显示的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需清查电路设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有时会发生画面旋转180度显示的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有时手指不按按键，按键生效图标依然显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需提示过载 “OL”</t>
   </si>
   <si>
     <t>待测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需提示过载 “OL”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,30 +639,333 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -370,16 +987,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8823613" y="382326"/>
-          <a:ext cx="705416" cy="360000"/>
+          <a:off x="9876155" y="391160"/>
+          <a:ext cx="705485" cy="360045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -417,16 +1034,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8815496" y="797718"/>
-          <a:ext cx="713701" cy="360000"/>
+          <a:off x="9868535" y="810260"/>
+          <a:ext cx="713740" cy="360045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -464,16 +1081,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8831580" y="4987290"/>
-          <a:ext cx="718688" cy="360000"/>
+          <a:off x="9881235" y="4999990"/>
+          <a:ext cx="718185" cy="359410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -772,342 +1389,406 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="26.375" customWidth="1"/>
-    <col min="5" max="5" width="36.375" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" customWidth="1"/>
+    <col min="2" max="2" width="6.37272727272727" customWidth="1"/>
+    <col min="3" max="3" width="25.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="26.3727272727273" customWidth="1"/>
+    <col min="5" max="5" width="36.3727272727273" customWidth="1"/>
+    <col min="6" max="6" width="40.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="21.6272727272727" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="33" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="2:8">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="33" customHeight="1">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="2:8">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="33" customHeight="1">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="2:8">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="33" customHeight="1">
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="2:8">
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="33" customHeight="1">
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="2:8">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="33" customHeight="1">
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="2:4">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="33" customHeight="1">
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="2:8">
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" ht="33" customHeight="1">
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="2:8">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="33" customHeight="1">
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="2:8">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="33" customHeight="1">
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="2:8">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="33" customHeight="1">
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="2:8">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="33" customHeight="1">
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="2:8">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="33" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="2:6">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="33" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="33" customHeight="1" spans="2:6">
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="33" customHeight="1">
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="2:8">
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="33" customHeight="1">
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="2:8">
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="33" customHeight="1">
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="33" customHeight="1" spans="2:8">
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="33" customHeight="1">
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" ht="33" customHeight="1" spans="2:8">
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="33" customHeight="1">
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="2:8">
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
+      <c r="C21" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/测试报告.xlsx
+++ b/测试报告.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>#</t>
   </si>
@@ -202,6 +202,11 @@
   <si>
     <t xml:space="preserve">需核查耗电量
 </t>
+  </si>
+  <si>
+    <t>1.工作电流25ma
+2.待机状态1-6ma
+3.语音播报60ma</t>
   </si>
   <si>
     <t xml:space="preserve">累计
@@ -253,12 +258,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +281,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,9 +309,101 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,14 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -326,104 +422,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -446,49 +444,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,37 +588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,25 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,61 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,21 +645,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +682,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -713,177 +735,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -894,14 +892,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1397,8 +1395,8 @@
   <sheetPr/>
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1410,7 +1408,7 @@
     <col min="5" max="5" width="36.3727272727273" customWidth="1"/>
     <col min="6" max="6" width="40.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="21.6272727272727" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
+    <col min="8" max="8" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -1429,7 +1427,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1437,19 +1435,19 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1457,16 +1455,16 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1474,16 +1472,16 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1491,16 +1489,16 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1508,16 +1506,16 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1525,10 +1523,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1536,13 +1534,13 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1551,16 +1549,16 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1568,16 +1566,16 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1585,19 +1583,19 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1605,19 +1603,19 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1625,19 +1623,19 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1645,95 +1643,98 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="33" customHeight="1" spans="2:6">
+    <row r="16" ht="33" customHeight="1" spans="2:8">
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="57" customHeight="1" spans="2:8">
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="33" customHeight="1" spans="2:8">
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" ht="33" customHeight="1" spans="2:8">
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" ht="33" customHeight="1" spans="2:8">
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1741,16 +1742,16 @@
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>61</v>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
